--- a/competitions-from-website.xlsx
+++ b/competitions-from-website.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\projects\ferris-anw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8875BD35-4507-4AF6-8DCB-5B877D970723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFE4559-7F12-49F8-875C-F5463265D74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="465" windowWidth="27315" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="750" windowWidth="17520" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
@@ -25,111 +25,543 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="179">
+  <si>
+    <t>Ninja Lair</t>
+  </si>
+  <si>
+    <t>Ninjobstacles</t>
+  </si>
   <si>
     <t>Altius Ninja</t>
   </si>
   <si>
-    <t>Ninja Lair</t>
+    <t>Magic City Gymnastics</t>
+  </si>
+  <si>
+    <t>Nebraska Ninja</t>
+  </si>
+  <si>
+    <t>The Barn</t>
+  </si>
+  <si>
+    <t>Four Star Ninja Academy</t>
+  </si>
+  <si>
+    <t>Big Time Ninja</t>
+  </si>
+  <si>
+    <t>Avant Coeur Ninja</t>
+  </si>
+  <si>
+    <t>Permian Basin Ninja Academy</t>
+  </si>
+  <si>
+    <t>Ninja Fortress</t>
+  </si>
+  <si>
+    <t>Camp Rhino</t>
+  </si>
+  <si>
+    <t>January 3</t>
+  </si>
+  <si>
+    <t>Hit Squad Ninjas</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>The Ninja Gym</t>
   </si>
   <si>
     <t>Tennessee</t>
   </si>
   <si>
+    <t>October 5th</t>
+  </si>
+  <si>
+    <t>Sumner Ninja</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>October 12th</t>
+  </si>
+  <si>
     <t>Republic Warrior Sports</t>
   </si>
   <si>
     <t>Missouri</t>
   </si>
   <si>
+    <t>Ninja Intensity</t>
+  </si>
+  <si>
     <t>Colorado</t>
   </si>
   <si>
+    <t>October 12-13th</t>
+  </si>
+  <si>
+    <t>Next Level Gym</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>October 19th</t>
+  </si>
+  <si>
+    <t>Warrior Zone Ninja Obstacle Center</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>October 19 - 20th</t>
+  </si>
+  <si>
     <t>Nevada</t>
   </si>
   <si>
+    <t>Ohio</t>
+  </si>
+  <si>
     <t>Wisconsin</t>
   </si>
   <si>
+    <t>October 20th</t>
+  </si>
+  <si>
     <t>Texas</t>
   </si>
   <si>
+    <t>October 26th</t>
+  </si>
+  <si>
+    <t>UNAA Gym</t>
+  </si>
+  <si>
     <t>New Mexico</t>
   </si>
   <si>
+    <t>Authentik Movement Training</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>October 27th</t>
+  </si>
+  <si>
+    <t>Tri County</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
     <t>The Ninja Playground</t>
   </si>
   <si>
     <t>Utah</t>
   </si>
   <si>
+    <t>November 1 - 2nd</t>
+  </si>
+  <si>
+    <t>District Christian Academy</t>
+  </si>
+  <si>
     <t>California</t>
   </si>
   <si>
+    <t>November 2nd</t>
+  </si>
+  <si>
+    <t>Paragon Performance Sports</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
     <t>Power Pickle</t>
   </si>
   <si>
+    <t>605 Ninja</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>November 2 - 3rd</t>
+  </si>
+  <si>
+    <t>Nova Ninja</t>
+  </si>
+  <si>
     <t>Virginia</t>
   </si>
   <si>
+    <t>Kid Wonder</t>
+  </si>
+  <si>
+    <t>November 9 - 10th</t>
+  </si>
+  <si>
     <t>Athletes in Motion</t>
   </si>
   <si>
     <t>Lousiana</t>
   </si>
   <si>
+    <t>November 9th</t>
+  </si>
+  <si>
     <t>Fortified Fitness</t>
   </si>
   <si>
+    <t>Airbenders</t>
+  </si>
+  <si>
+    <t>Warrior Tech - Raleigh</t>
+  </si>
+  <si>
+    <t>Surge Ninja</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>ORTHDX</t>
+  </si>
+  <si>
+    <t>Super Ninja Zone</t>
+  </si>
+  <si>
+    <t>November 16th</t>
+  </si>
+  <si>
     <t>Iron Sports Ninja Warrior</t>
   </si>
   <si>
+    <t>Conquer Gym - Gilbert</t>
+  </si>
+  <si>
     <t>WISC Ninja Warrior</t>
   </si>
   <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>November 23rd</t>
+  </si>
+  <si>
+    <t>November 23 - 24th</t>
+  </si>
+  <si>
+    <t>Altitude Movement Gym</t>
+  </si>
+  <si>
     <t>Lost Island</t>
   </si>
   <si>
+    <t>November 30th</t>
+  </si>
+  <si>
+    <t>The Grip</t>
+  </si>
+  <si>
+    <t>December 6 - 7th</t>
+  </si>
+  <si>
+    <t>Camp Ninja Warrior</t>
+  </si>
+  <si>
+    <t>December 7th</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
     <t>Move Sport Ninja Academy</t>
   </si>
   <si>
+    <t>Ultimate Ninjas- Anaheim Hills</t>
+  </si>
+  <si>
+    <t>Free Spirit</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>December 8th</t>
+  </si>
+  <si>
+    <t>Ultimate Ninjas - Elmhurst</t>
+  </si>
+  <si>
+    <t>NinjaKour</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>December 14th</t>
+  </si>
+  <si>
+    <t>Vertex Lab Academy</t>
+  </si>
+  <si>
+    <t>December 15th</t>
+  </si>
+  <si>
+    <t>World Class Dragons</t>
+  </si>
+  <si>
+    <t>January 3 - 4th</t>
+  </si>
+  <si>
+    <t>Conquer Ninja Gyms - Woodbury</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>January 10 - 11th</t>
+  </si>
+  <si>
+    <t>USA Ninja Challenge-Manchester</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>Ninja Hub</t>
+  </si>
+  <si>
+    <t>January 12th</t>
+  </si>
+  <si>
+    <t>January 18th</t>
+  </si>
+  <si>
+    <t>January 18 - 19th</t>
+  </si>
+  <si>
+    <t>Impact Ninja Gym</t>
+  </si>
+  <si>
+    <t>January 24 - 25th</t>
+  </si>
+  <si>
+    <t>Flow Vault</t>
+  </si>
+  <si>
+    <t>January 25th</t>
+  </si>
+  <si>
+    <t>Ninja Obstacle Academy</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
     <t>305 Ninja Academy</t>
   </si>
   <si>
     <t>Florida</t>
   </si>
   <si>
+    <t>January 26th</t>
+  </si>
+  <si>
     <t>Leap Ninja</t>
   </si>
   <si>
     <t>Wyoming</t>
   </si>
   <si>
+    <t>February 1st</t>
+  </si>
+  <si>
+    <t>USA Ninja Challenge - Greenbrier</t>
+  </si>
+  <si>
+    <t>February 8th</t>
+  </si>
+  <si>
+    <t>Warrior Challenge Arena</t>
+  </si>
+  <si>
+    <t>Ninjas United</t>
+  </si>
+  <si>
+    <t>February 8 - 9th</t>
+  </si>
+  <si>
+    <t>USA Ninja Challenge - Marlborough</t>
+  </si>
+  <si>
+    <t>AirBenders</t>
+  </si>
+  <si>
+    <t>February 15th</t>
+  </si>
+  <si>
+    <t>Rock Solid Warrior - Apex</t>
+  </si>
+  <si>
+    <t>February 15 - 16th</t>
+  </si>
+  <si>
+    <t>USA Ninja Challenge - Rochester</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Ninja Force</t>
+  </si>
+  <si>
+    <t>February 16th</t>
+  </si>
+  <si>
     <t>Strong Grip</t>
   </si>
   <si>
+    <t>February 17th</t>
+  </si>
+  <si>
+    <t>The Jungle Movement Academy</t>
+  </si>
+  <si>
+    <t>February 22nd</t>
+  </si>
+  <si>
+    <t>Bodies In Motion</t>
+  </si>
+  <si>
+    <t>Nova Ninja Sterling</t>
+  </si>
+  <si>
+    <t>February 22 - 23rd</t>
+  </si>
+  <si>
+    <t>Conquer Gym - Fargo</t>
+  </si>
+  <si>
+    <t>The Wolf's Den</t>
+  </si>
+  <si>
     <t>March 1st</t>
   </si>
   <si>
-    <t>The Wolfs Den</t>
-  </si>
-  <si>
-    <t>March 2nd</t>
-  </si>
-  <si>
-    <t>Ultimate Ninja Gym</t>
-  </si>
-  <si>
-    <t>March 8th</t>
-  </si>
-  <si>
-    <t>March 9th</t>
-  </si>
-  <si>
-    <t>March 1st - 9th</t>
-  </si>
-  <si>
-    <t>March 7th - 9th</t>
+    <t>Conquer Gym - Chandler</t>
+  </si>
+  <si>
+    <t>March 15th</t>
+  </si>
+  <si>
+    <t>Buffalo Elite Ninja</t>
+  </si>
+  <si>
+    <t>Ninja Quest Adventures</t>
+  </si>
+  <si>
+    <t>Rapt Ninja</t>
+  </si>
+  <si>
+    <t>March 15 - 16th</t>
+  </si>
+  <si>
+    <t>March 22nd</t>
+  </si>
+  <si>
+    <t>Sumter Ninja Warrior</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Ninja Republic</t>
+  </si>
+  <si>
+    <t>March 29th</t>
+  </si>
+  <si>
+    <t>USA Ninja Challenge - Bristol</t>
+  </si>
+  <si>
+    <t>Get Over It Fitness</t>
+  </si>
+  <si>
+    <t>March 29 - 30th</t>
+  </si>
+  <si>
+    <t>Sterling Gym</t>
+  </si>
+  <si>
+    <t>March 30th</t>
+  </si>
+  <si>
+    <t>USA Ninja Challenge - Katy</t>
+  </si>
+  <si>
+    <t>April 5th</t>
+  </si>
+  <si>
+    <t>Rock Solid Warrior - Fuquay</t>
+  </si>
+  <si>
+    <t>April 5 - 6th</t>
+  </si>
+  <si>
+    <t>Tumble Time Gymnastics</t>
+  </si>
+  <si>
+    <t>April 12th</t>
+  </si>
+  <si>
+    <t>First State Gymnatics</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 11 - 12th </t>
+  </si>
+  <si>
+    <t>Sept 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 8 - 9th </t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 5 - 6th </t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 19th </t>
+  </si>
+  <si>
+    <t>May 17th</t>
+  </si>
+  <si>
+    <t>June 6th</t>
+  </si>
+  <si>
+    <t>June 7th</t>
   </si>
 </sst>
 </file>
@@ -448,191 +880,1249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B631BB12-A395-416B-90FF-E3DEC391AB50}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.85546875" style="1"/>
+    <col min="3" max="3" width="50.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>144</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>72</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>148</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>149</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>150</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>153</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>155</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>85</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>158</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>160</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>80</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>90</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>164</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>166</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C109" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>66</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
+      <c r="D111" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>168</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
